--- a/File Importing/01-2018.xlsx
+++ b/File Importing/01-2018.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ac03d24fdcff188/Documentos/Labs_DataWranglig/File Importing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_7D830A4FE267752E7EA2A948083E02D645A435F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215F9CDD-769C-4625-AE06-C1E58321607B}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet3" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhvtYcQMC/GF9LorclnH6dxNbyrLg=="/>
@@ -138,13 +144,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -154,66 +160,356 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="55.29"/>
-    <col customWidth="1" min="3" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="27.71"/>
-    <col customWidth="1" min="6" max="6" width="10.57"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="16.29"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -239,44 +535,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.0000001E7</v>
+        <v>10000001</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D2">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="G2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0000002E7</v>
+        <v>10000002</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D3">
-        <v>1433.0</v>
+        <v>1433</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -285,24 +581,24 @@
         <v>358.25</v>
       </c>
       <c r="G3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.0000003E7</v>
+        <v>10000003</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D4">
-        <v>1857.0</v>
+        <v>1857</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -311,24 +607,24 @@
         <v>464.25</v>
       </c>
       <c r="G4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.0000004E7</v>
+        <v>10000004</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D5">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -337,50 +633,50 @@
         <v>84.75</v>
       </c>
       <c r="G5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.0000005E7</v>
+        <v>10000005</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D6">
-        <v>1644.0</v>
+        <v>1644</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="G6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.0000006E7</v>
+        <v>10000006</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D7">
-        <v>1827.0</v>
+        <v>1827</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -389,24 +685,24 @@
         <v>456.75</v>
       </c>
       <c r="G7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.0000007E7</v>
+        <v>10000007</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D8">
-        <v>1947.0</v>
+        <v>1947</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -415,50 +711,50 @@
         <v>486.75</v>
       </c>
       <c r="G8">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.0000008E7</v>
+        <v>10000008</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D9">
-        <v>1716.0</v>
+        <v>1716</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="G9">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.0000009E7</v>
+        <v>10000009</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D10">
-        <v>1601.0</v>
+        <v>1601</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -467,24 +763,24 @@
         <v>400.25</v>
       </c>
       <c r="G10">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1.000001E7</v>
+        <v>10000010</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D11">
-        <v>1343.0</v>
+        <v>1343</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -493,24 +789,24 @@
         <v>335.75</v>
       </c>
       <c r="G11">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.0000011E7</v>
+        <v>10000011</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D12">
-        <v>1782.0</v>
+        <v>1782</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -519,24 +815,24 @@
         <v>445.5</v>
       </c>
       <c r="G12">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.0000012E7</v>
+        <v>10000012</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D13">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -545,24 +841,24 @@
         <v>58.5</v>
       </c>
       <c r="G13">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1.0000013E7</v>
+        <v>10000013</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D14">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -571,50 +867,50 @@
         <v>385.5</v>
       </c>
       <c r="G14">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1.0000014E7</v>
+        <v>10000014</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D15">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="G15">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.0000015E7</v>
+        <v>10000015</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D16">
-        <v>1667.0</v>
+        <v>1667</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -623,24 +919,24 @@
         <v>416.75</v>
       </c>
       <c r="G16">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1.0000016E7</v>
+        <v>10000016</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D17">
-        <v>1325.0</v>
+        <v>1325</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -649,24 +945,24 @@
         <v>331.25</v>
       </c>
       <c r="G17">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1.0000017E7</v>
+        <v>10000017</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D18">
-        <v>1186.0</v>
+        <v>1186</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -675,24 +971,24 @@
         <v>296.5</v>
       </c>
       <c r="G18">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1.0000018E7</v>
+        <v>10000018</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D19">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -701,24 +997,24 @@
         <v>57.75</v>
       </c>
       <c r="G19">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1.0000019E7</v>
+        <v>10000019</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D20">
-        <v>783.0</v>
+        <v>783</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -727,24 +1023,24 @@
         <v>195.75</v>
       </c>
       <c r="G20">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1.000002E7</v>
+        <v>10000020</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D21">
-        <v>971.0</v>
+        <v>971</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -753,24 +1049,24 @@
         <v>242.75</v>
       </c>
       <c r="G21">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1.0000021E7</v>
+        <v>10000021</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D22">
-        <v>547.0</v>
+        <v>547</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -779,24 +1075,24 @@
         <v>136.75</v>
       </c>
       <c r="G22">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1.0000022E7</v>
+        <v>10000022</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D23">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -805,24 +1101,24 @@
         <v>387.5</v>
       </c>
       <c r="G23">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1.0000023E7</v>
+        <v>10000023</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D24">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -831,24 +1127,24 @@
         <v>83.75</v>
       </c>
       <c r="G24">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1.0000024E7</v>
+        <v>10000024</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D25">
-        <v>1173.0</v>
+        <v>1173</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -857,24 +1153,24 @@
         <v>293.25</v>
       </c>
       <c r="G25">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1.0000025E7</v>
+        <v>10000025</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D26">
-        <v>1061.0</v>
+        <v>1061</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -883,50 +1179,50 @@
         <v>265.25</v>
       </c>
       <c r="G26">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1.0000026E7</v>
+        <v>10000026</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D27">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="G27">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1.0000027E7</v>
+        <v>10000027</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D28">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -935,24 +1231,24 @@
         <v>198.75</v>
       </c>
       <c r="G28">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1.0000028E7</v>
+        <v>10000028</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D29">
-        <v>1330.0</v>
+        <v>1330</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -961,50 +1257,50 @@
         <v>332.5</v>
       </c>
       <c r="G29">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1.0000029E7</v>
+        <v>10000029</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D30">
-        <v>1648.0</v>
+        <v>1648</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="G30">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1.000003E7</v>
+        <v>10000030</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D31">
-        <v>1502.0</v>
+        <v>1502</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -1013,24 +1309,24 @@
         <v>375.5</v>
       </c>
       <c r="G31">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1.0000031E7</v>
+        <v>10000031</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D32">
-        <v>1659.0</v>
+        <v>1659</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -1039,50 +1335,50 @@
         <v>414.75</v>
       </c>
       <c r="G32">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1.0000032E7</v>
+        <v>10000032</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D33">
-        <v>1508.0</v>
+        <v>1508</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="1">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="G33">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1.0000033E7</v>
+        <v>10000033</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D34">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -1091,24 +1387,24 @@
         <v>218.75</v>
       </c>
       <c r="G34">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1.0000034E7</v>
+        <v>10000034</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
       <c r="C35">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D35">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1117,50 +1413,50 @@
         <v>85.5</v>
       </c>
       <c r="G35">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1.0000035E7</v>
+        <v>10000035</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D36">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="G36">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1.0000036E7</v>
+        <v>10000036</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D37">
-        <v>1442.0</v>
+        <v>1442</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -1169,24 +1465,24 @@
         <v>360.5</v>
       </c>
       <c r="G37">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1.0000037E7</v>
+        <v>10000037</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D38">
-        <v>1467.0</v>
+        <v>1467</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1195,24 +1491,24 @@
         <v>366.75</v>
       </c>
       <c r="G38">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1.0000038E7</v>
+        <v>10000038</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D39">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1221,24 +1517,24 @@
         <v>497.75</v>
       </c>
       <c r="G39">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1.0000039E7</v>
+        <v>10000039</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
       <c r="C40">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D40">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1247,50 +1543,50 @@
         <v>397.25</v>
       </c>
       <c r="G40">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1.000004E7</v>
+        <v>10000040</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D41">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="G41">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1.0000041E7</v>
+        <v>10000041</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D42">
-        <v>766.0</v>
+        <v>766</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -1299,24 +1595,24 @@
         <v>191.5</v>
       </c>
       <c r="G42">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1.0000042E7</v>
+        <v>10000042</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D43">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1325,24 +1621,24 @@
         <v>206.75</v>
       </c>
       <c r="G43">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1.0000043E7</v>
+        <v>10000043</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D44">
-        <v>1027.0</v>
+        <v>1027</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1351,24 +1647,24 @@
         <v>256.75</v>
       </c>
       <c r="G44">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1.0000044E7</v>
+        <v>10000044</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
       </c>
       <c r="C45">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D45">
-        <v>1706.0</v>
+        <v>1706</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
@@ -1377,76 +1673,76 @@
         <v>426.5</v>
       </c>
       <c r="G45">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1.0000045E7</v>
+        <v>10000045</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D46">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="G46">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1.0000046E7</v>
+        <v>10000046</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D47">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="G47">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1.0000047E7</v>
+        <v>10000047</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D48">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -1455,24 +1751,24 @@
         <v>90.5</v>
       </c>
       <c r="G48">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1.0000048E7</v>
+        <v>10000048</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
       </c>
       <c r="C49">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D49">
-        <v>1937.0</v>
+        <v>1937</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -1481,24 +1777,24 @@
         <v>484.25</v>
       </c>
       <c r="G49">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1.0000049E7</v>
+        <v>10000049</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
       <c r="C50">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D50">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -1507,50 +1803,50 @@
         <v>74.25</v>
       </c>
       <c r="G50">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1.000005E7</v>
+        <v>10000050</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D51">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G51">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1.0000051E7</v>
+        <v>10000051</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
       </c>
       <c r="C52">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D52">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -1559,24 +1855,24 @@
         <v>56.25</v>
       </c>
       <c r="G52">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1.0000052E7</v>
+        <v>10000052</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D53">
-        <v>562.0</v>
+        <v>562</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -1585,24 +1881,24 @@
         <v>140.5</v>
       </c>
       <c r="G53">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1.0000053E7</v>
+        <v>10000053</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
       </c>
       <c r="C54">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D54">
-        <v>1791.0</v>
+        <v>1791</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1611,50 +1907,50 @@
         <v>447.75</v>
       </c>
       <c r="G54">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1.0000054E7</v>
+        <v>10000054</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
       </c>
       <c r="C55">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D55">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="G55">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1.0000055E7</v>
+        <v>10000055</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
       </c>
       <c r="C56">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D56">
-        <v>1903.0</v>
+        <v>1903</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -1663,24 +1959,24 @@
         <v>475.75</v>
       </c>
       <c r="G56">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1.0000056E7</v>
+        <v>10000056</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D57">
-        <v>1231.0</v>
+        <v>1231</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -1689,24 +1985,24 @@
         <v>307.75</v>
       </c>
       <c r="G57">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1.0000057E7</v>
+        <v>10000057</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
       <c r="C58">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D58">
-        <v>1682.0</v>
+        <v>1682</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -1715,24 +2011,24 @@
         <v>420.5</v>
       </c>
       <c r="G58">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1.0000058E7</v>
+        <v>10000058</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
       </c>
       <c r="C59">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D59">
-        <v>1653.0</v>
+        <v>1653</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -1741,24 +2037,24 @@
         <v>413.25</v>
       </c>
       <c r="G59">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1.0000059E7</v>
+        <v>10000059</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D60">
-        <v>1907.0</v>
+        <v>1907</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -1767,24 +2063,24 @@
         <v>476.75</v>
       </c>
       <c r="G60">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1.000006E7</v>
+        <v>10000060</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D61">
-        <v>1954.0</v>
+        <v>1954</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -1793,24 +2089,24 @@
         <v>488.5</v>
       </c>
       <c r="G61">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1.0000061E7</v>
+        <v>10000061</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
       </c>
       <c r="C62">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D62">
-        <v>1177.0</v>
+        <v>1177</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1819,24 +2115,24 @@
         <v>294.25</v>
       </c>
       <c r="G62">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1.0000062E7</v>
+        <v>10000062</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D63">
-        <v>1247.0</v>
+        <v>1247</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -1845,24 +2141,24 @@
         <v>311.75</v>
       </c>
       <c r="G63">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1.0000063E7</v>
+        <v>10000063</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D64">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -1871,24 +2167,24 @@
         <v>387.75</v>
       </c>
       <c r="G64">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1.0000064E7</v>
+        <v>10000064</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="C65">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D65">
-        <v>1481.0</v>
+        <v>1481</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -1897,24 +2193,24 @@
         <v>370.25</v>
       </c>
       <c r="G65">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1.0000065E7</v>
+        <v>10000065</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D66">
-        <v>1126.0</v>
+        <v>1126</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -1923,24 +2219,24 @@
         <v>281.5</v>
       </c>
       <c r="G66">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1.0000066E7</v>
+        <v>10000066</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
       </c>
       <c r="C67">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D67">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -1949,24 +2245,24 @@
         <v>309.75</v>
       </c>
       <c r="G67">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1.0000067E7</v>
+        <v>10000067</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
       </c>
       <c r="C68">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D68">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -1975,24 +2271,24 @@
         <v>399.5</v>
       </c>
       <c r="G68">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1.0000068E7</v>
+        <v>10000068</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D69">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="E69" t="s">
         <v>34</v>
@@ -2001,24 +2297,24 @@
         <v>241.25</v>
       </c>
       <c r="G69">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1.0000069E7</v>
+        <v>10000069</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D70">
-        <v>1111.0</v>
+        <v>1111</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -2027,50 +2323,50 @@
         <v>277.75</v>
       </c>
       <c r="G70">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1.000007E7</v>
+        <v>10000070</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D71">
-        <v>1092.0</v>
+        <v>1092</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="G71">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1.0000071E7</v>
+        <v>10000071</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
       </c>
       <c r="C72">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D72">
-        <v>1107.0</v>
+        <v>1107</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -2079,24 +2375,24 @@
         <v>276.75</v>
       </c>
       <c r="G72">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1.0000072E7</v>
+        <v>10000072</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
       </c>
       <c r="C73">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D73">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -2105,24 +2401,24 @@
         <v>239.5</v>
       </c>
       <c r="G73">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1.0000073E7</v>
+        <v>10000073</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
       </c>
       <c r="C74">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D74">
-        <v>1402.0</v>
+        <v>1402</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
@@ -2131,24 +2427,24 @@
         <v>350.5</v>
       </c>
       <c r="G74">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1.0000074E7</v>
+        <v>10000074</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
       </c>
       <c r="C75">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D75">
-        <v>1059.0</v>
+        <v>1059</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -2157,50 +2453,50 @@
         <v>264.75</v>
       </c>
       <c r="G75">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1.0000075E7</v>
+        <v>10000075</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D76">
-        <v>592.0</v>
+        <v>592</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="G76">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1.0000076E7</v>
+        <v>10000076</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
       </c>
       <c r="C77">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D77">
-        <v>1278.0</v>
+        <v>1278</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -2209,24 +2505,24 @@
         <v>319.5</v>
       </c>
       <c r="G77">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1.0000077E7</v>
+        <v>10000077</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
       </c>
       <c r="C78">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D78">
-        <v>1578.0</v>
+        <v>1578</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
@@ -2235,76 +2531,76 @@
         <v>394.5</v>
       </c>
       <c r="G78">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1.0000078E7</v>
+        <v>10000078</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
       </c>
       <c r="C79">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D79">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="G79">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1.0000079E7</v>
+        <v>10000079</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
       <c r="C80">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D80">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="G80">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1.000008E7</v>
+        <v>10000080</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D81">
-        <v>1221.0</v>
+        <v>1221</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -2313,24 +2609,24 @@
         <v>305.25</v>
       </c>
       <c r="G81">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1.0000081E7</v>
+        <v>10000081</v>
       </c>
       <c r="B82" t="s">
         <v>29</v>
       </c>
       <c r="C82">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D82">
-        <v>547.0</v>
+        <v>547</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2339,24 +2635,24 @@
         <v>136.75</v>
       </c>
       <c r="G82">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1.0000082E7</v>
+        <v>10000082</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
       </c>
       <c r="C83">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D83">
-        <v>742.0</v>
+        <v>742</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2365,24 +2661,24 @@
         <v>185.5</v>
       </c>
       <c r="G83">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1.0000083E7</v>
+        <v>10000083</v>
       </c>
       <c r="B84" t="s">
         <v>29</v>
       </c>
       <c r="C84">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D84">
-        <v>1709.0</v>
+        <v>1709</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -2391,24 +2687,24 @@
         <v>427.25</v>
       </c>
       <c r="G84">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1.0000084E7</v>
+        <v>10000084</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D85">
-        <v>1769.0</v>
+        <v>1769</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -2417,50 +2713,50 @@
         <v>442.25</v>
       </c>
       <c r="G85">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1.0000085E7</v>
+        <v>10000085</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
       </c>
       <c r="C86">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D86">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
       </c>
       <c r="F86" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="G86">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1.0000086E7</v>
+        <v>10000086</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
       </c>
       <c r="C87">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D87">
-        <v>1203.0</v>
+        <v>1203</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -2469,24 +2765,24 @@
         <v>300.75</v>
       </c>
       <c r="G87">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1.0000087E7</v>
+        <v>10000087</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
       <c r="C88">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D88">
-        <v>663.0</v>
+        <v>663</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
@@ -2495,24 +2791,24 @@
         <v>165.75</v>
       </c>
       <c r="G88">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1.0000088E7</v>
+        <v>10000088</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
       </c>
       <c r="C89">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D89">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="E89" t="s">
         <v>34</v>
@@ -2521,24 +2817,24 @@
         <v>232.25</v>
       </c>
       <c r="G89">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1.0000089E7</v>
+        <v>10000089</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D90">
-        <v>859.0</v>
+        <v>859</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -2547,50 +2843,50 @@
         <v>214.75</v>
       </c>
       <c r="G90">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1.000009E7</v>
+        <v>10000090</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
       </c>
       <c r="C91">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D91">
-        <v>1144.0</v>
+        <v>1144</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="G91">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1.0000091E7</v>
+        <v>10000091</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
       <c r="C92">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D92">
-        <v>1351.0</v>
+        <v>1351</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -2599,24 +2895,24 @@
         <v>337.75</v>
       </c>
       <c r="G92">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1.0000092E7</v>
+        <v>10000092</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D93">
-        <v>1134.0</v>
+        <v>1134</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -2625,24 +2921,24 @@
         <v>283.5</v>
       </c>
       <c r="G93">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1.0000093E7</v>
+        <v>10000093</v>
       </c>
       <c r="B94" t="s">
         <v>32</v>
       </c>
       <c r="C94">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D94">
-        <v>1929.0</v>
+        <v>1929</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -2651,24 +2947,24 @@
         <v>482.25</v>
       </c>
       <c r="G94">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1.0000094E7</v>
+        <v>10000094</v>
       </c>
       <c r="B95" t="s">
         <v>36</v>
       </c>
       <c r="C95">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D95">
-        <v>1285.0</v>
+        <v>1285</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -2677,76 +2973,76 @@
         <v>321.25</v>
       </c>
       <c r="G95">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1.0000095E7</v>
+        <v>10000095</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D96">
-        <v>1256.0</v>
+        <v>1256</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="G96">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1.0000096E7</v>
+        <v>10000096</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
       </c>
       <c r="C97">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D97">
-        <v>516.0</v>
+        <v>516</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="G97">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1.0000097E7</v>
+        <v>10000097</v>
       </c>
       <c r="B98" t="s">
         <v>31</v>
       </c>
       <c r="C98">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D98">
-        <v>829.0</v>
+        <v>829</v>
       </c>
       <c r="E98" t="s">
         <v>16</v>
@@ -2755,24 +3051,24 @@
         <v>207.25</v>
       </c>
       <c r="G98">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1.0000098E7</v>
+        <v>10000098</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
       <c r="C99">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D99">
-        <v>1706.0</v>
+        <v>1706</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2781,24 +3077,24 @@
         <v>426.5</v>
       </c>
       <c r="G99">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1.0000099E7</v>
+        <v>10000099</v>
       </c>
       <c r="B100" t="s">
         <v>35</v>
       </c>
       <c r="C100">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D100">
-        <v>1201.0</v>
+        <v>1201</v>
       </c>
       <c r="E100" t="s">
         <v>22</v>
@@ -2807,24 +3103,24 @@
         <v>300.25</v>
       </c>
       <c r="G100">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1.00001E7</v>
+        <v>10000100</v>
       </c>
       <c r="B101" t="s">
         <v>32</v>
       </c>
       <c r="C101">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D101">
-        <v>1373.0</v>
+        <v>1373</v>
       </c>
       <c r="E101" t="s">
         <v>22</v>
@@ -2833,50 +3129,50 @@
         <v>343.25</v>
       </c>
       <c r="G101">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1.0000101E7</v>
+        <v>10000101</v>
       </c>
       <c r="B102" t="s">
         <v>35</v>
       </c>
       <c r="C102">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D102">
-        <v>1164.0</v>
+        <v>1164</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="G102">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1.0000102E7</v>
+        <v>10000102</v>
       </c>
       <c r="B103" t="s">
         <v>27</v>
       </c>
       <c r="C103">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D103">
-        <v>1405.0</v>
+        <v>1405</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -2885,24 +3181,24 @@
         <v>351.25</v>
       </c>
       <c r="G103">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1.0000103E7</v>
+        <v>10000103</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D104">
-        <v>1722.0</v>
+        <v>1722</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -2911,24 +3207,24 @@
         <v>430.5</v>
       </c>
       <c r="G104">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1.0000104E7</v>
+        <v>10000104</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D105">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -2937,24 +3233,24 @@
         <v>166.5</v>
       </c>
       <c r="G105">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1.0000105E7</v>
+        <v>10000105</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D106">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="E106" t="s">
         <v>22</v>
@@ -2963,24 +3259,24 @@
         <v>148.75</v>
       </c>
       <c r="G106">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H106" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1.0000106E7</v>
+        <v>10000106</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
       </c>
       <c r="C107">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D107">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="E107" t="s">
         <v>26</v>
@@ -2989,50 +3285,50 @@
         <v>120.5</v>
       </c>
       <c r="G107">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1.0000107E7</v>
+        <v>10000107</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
       </c>
       <c r="C108">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D108">
-        <v>1340.0</v>
+        <v>1340</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="G108">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1.0000108E7</v>
+        <v>10000108</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
       </c>
       <c r="C109">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D109">
-        <v>1887.0</v>
+        <v>1887</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -3041,24 +3337,24 @@
         <v>471.75</v>
       </c>
       <c r="G109">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1.0000109E7</v>
+        <v>10000109</v>
       </c>
       <c r="B110" t="s">
         <v>31</v>
       </c>
       <c r="C110">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D110">
-        <v>835.0</v>
+        <v>835</v>
       </c>
       <c r="E110" t="s">
         <v>34</v>
@@ -3067,50 +3363,50 @@
         <v>208.75</v>
       </c>
       <c r="G110">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1.000011E7</v>
+        <v>10000110</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
       </c>
       <c r="C111">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D111">
-        <v>696.0</v>
+        <v>696</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="G111">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1.0000111E7</v>
+        <v>10000111</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
       </c>
       <c r="C112">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D112">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -3119,76 +3415,76 @@
         <v>103.5</v>
       </c>
       <c r="G112">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1.0000112E7</v>
+        <v>10000112</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D113">
-        <v>1888.0</v>
+        <v>1888</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="1">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="G113">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H113" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1.0000113E7</v>
+        <v>10000113</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D114">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="E114" t="s">
         <v>26</v>
       </c>
       <c r="F114" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="G114">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1.0000114E7</v>
+        <v>10000114</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D115">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -3197,24 +3493,24 @@
         <v>267.5</v>
       </c>
       <c r="G115">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1.0000115E7</v>
+        <v>10000115</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
       </c>
       <c r="C116">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D116">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3223,24 +3519,24 @@
         <v>177.5</v>
       </c>
       <c r="G116">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1.0000116E7</v>
+        <v>10000116</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
       </c>
       <c r="C117">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D117">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="E117" t="s">
         <v>26</v>
@@ -3249,24 +3545,24 @@
         <v>139.25</v>
       </c>
       <c r="G117">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1.0000117E7</v>
+        <v>10000117</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
       </c>
       <c r="C118">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D118">
-        <v>1666.0</v>
+        <v>1666</v>
       </c>
       <c r="E118" t="s">
         <v>22</v>
@@ -3275,76 +3571,76 @@
         <v>416.5</v>
       </c>
       <c r="G118">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1.0000118E7</v>
+        <v>10000118</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D119">
-        <v>1456.0</v>
+        <v>1456</v>
       </c>
       <c r="E119" t="s">
         <v>34</v>
       </c>
       <c r="F119" s="1">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="G119">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1.0000119E7</v>
+        <v>10000119</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
       </c>
       <c r="C120">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D120">
-        <v>1652.0</v>
+        <v>1652</v>
       </c>
       <c r="E120" t="s">
         <v>34</v>
       </c>
       <c r="F120" s="1">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="G120">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H120" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1.000012E7</v>
+        <v>10000120</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D121">
-        <v>1153.0</v>
+        <v>1153</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -3353,50 +3649,50 @@
         <v>288.25</v>
       </c>
       <c r="G121">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1.0000121E7</v>
+        <v>10000121</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
       </c>
       <c r="C122">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D122">
-        <v>1668.0</v>
+        <v>1668</v>
       </c>
       <c r="E122" t="s">
         <v>34</v>
       </c>
       <c r="F122" s="1">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="G122">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1.0000122E7</v>
+        <v>10000122</v>
       </c>
       <c r="B123" t="s">
         <v>35</v>
       </c>
       <c r="C123">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D123">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -3405,24 +3701,24 @@
         <v>328.75</v>
       </c>
       <c r="G123">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1.0000123E7</v>
+        <v>10000123</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
       </c>
       <c r="C124">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D124">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -3431,24 +3727,24 @@
         <v>423.75</v>
       </c>
       <c r="G124">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1.0000124E7</v>
+        <v>10000124</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
       </c>
       <c r="C125">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D125">
-        <v>1618.0</v>
+        <v>1618</v>
       </c>
       <c r="E125" t="s">
         <v>26</v>
@@ -3457,128 +3753,128 @@
         <v>404.5</v>
       </c>
       <c r="G125">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1.0000125E7</v>
+        <v>10000125</v>
       </c>
       <c r="B126" t="s">
         <v>27</v>
       </c>
       <c r="C126">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D126">
-        <v>1912.0</v>
+        <v>1912</v>
       </c>
       <c r="E126" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="1">
-        <v>478.0</v>
+        <v>478</v>
       </c>
       <c r="G126">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1.0000126E7</v>
+        <v>10000126</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
       </c>
       <c r="C127">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D127">
-        <v>1112.0</v>
+        <v>1112</v>
       </c>
       <c r="E127" t="s">
         <v>26</v>
       </c>
       <c r="F127" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="G127">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1.0000127E7</v>
+        <v>10000127</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D128">
-        <v>828.0</v>
+        <v>828</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
       </c>
       <c r="F128" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="G128">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H128" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1.0000128E7</v>
+        <v>10000128</v>
       </c>
       <c r="B129" t="s">
         <v>36</v>
       </c>
       <c r="C129">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D129">
-        <v>1820.0</v>
+        <v>1820</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="1">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="G129">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1.0000129E7</v>
+        <v>10000129</v>
       </c>
       <c r="B130" t="s">
         <v>33</v>
       </c>
       <c r="C130">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D130">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -3587,24 +3883,24 @@
         <v>76.5</v>
       </c>
       <c r="G130">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1.000013E7</v>
+        <v>10000130</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
       </c>
       <c r="C131">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D131">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -3613,24 +3909,24 @@
         <v>364.75</v>
       </c>
       <c r="G131">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H131" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1.0000131E7</v>
+        <v>10000131</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
       </c>
       <c r="C132">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D132">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -3639,76 +3935,76 @@
         <v>307.5</v>
       </c>
       <c r="G132">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1.0000132E7</v>
+        <v>10000132</v>
       </c>
       <c r="B133" t="s">
         <v>35</v>
       </c>
       <c r="C133">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D133">
-        <v>456.0</v>
+        <v>456</v>
       </c>
       <c r="E133" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="G133">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1.0000133E7</v>
+        <v>10000133</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
       </c>
       <c r="C134">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D134">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="G134">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1.0000134E7</v>
+        <v>10000134</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
       </c>
       <c r="C135">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D135">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3717,50 +4013,50 @@
         <v>59.25</v>
       </c>
       <c r="G135">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1.0000135E7</v>
+        <v>10000135</v>
       </c>
       <c r="B136" t="s">
         <v>23</v>
       </c>
       <c r="C136">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D136">
-        <v>1280.0</v>
+        <v>1280</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="G136">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1.0000136E7</v>
+        <v>10000136</v>
       </c>
       <c r="B137" t="s">
         <v>35</v>
       </c>
       <c r="C137">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D137">
-        <v>1193.0</v>
+        <v>1193</v>
       </c>
       <c r="E137" t="s">
         <v>26</v>
@@ -3769,24 +4065,24 @@
         <v>298.25</v>
       </c>
       <c r="G137">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H137" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1.0000137E7</v>
+        <v>10000137</v>
       </c>
       <c r="B138" t="s">
         <v>29</v>
       </c>
       <c r="C138">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D138">
-        <v>1294.0</v>
+        <v>1294</v>
       </c>
       <c r="E138" t="s">
         <v>34</v>
@@ -3795,24 +4091,24 @@
         <v>323.5</v>
       </c>
       <c r="G138">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H138" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1.0000138E7</v>
+        <v>10000138</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D139">
-        <v>1435.0</v>
+        <v>1435</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -3821,24 +4117,24 @@
         <v>358.75</v>
       </c>
       <c r="G139">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1.0000139E7</v>
+        <v>10000139</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D140">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
@@ -3847,24 +4143,24 @@
         <v>397.25</v>
       </c>
       <c r="G140">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1.000014E7</v>
+        <v>10000140</v>
       </c>
       <c r="B141" t="s">
         <v>32</v>
       </c>
       <c r="C141">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D141">
-        <v>1259.0</v>
+        <v>1259</v>
       </c>
       <c r="E141" t="s">
         <v>16</v>
@@ -3873,50 +4169,50 @@
         <v>314.75</v>
       </c>
       <c r="G141">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1.0000141E7</v>
+        <v>10000141</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
       </c>
       <c r="C142">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D142">
-        <v>1544.0</v>
+        <v>1544</v>
       </c>
       <c r="E142" t="s">
         <v>22</v>
       </c>
       <c r="F142" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="G142">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1.0000142E7</v>
+        <v>10000142</v>
       </c>
       <c r="B143" t="s">
         <v>28</v>
       </c>
       <c r="C143">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D143">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -3925,76 +4221,76 @@
         <v>223.5</v>
       </c>
       <c r="G143">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H143" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1.0000143E7</v>
+        <v>10000143</v>
       </c>
       <c r="B144" t="s">
         <v>28</v>
       </c>
       <c r="C144">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D144">
-        <v>1764.0</v>
+        <v>1764</v>
       </c>
       <c r="E144" t="s">
         <v>34</v>
       </c>
       <c r="F144" s="1">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="G144">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1.0000144E7</v>
+        <v>10000144</v>
       </c>
       <c r="B145" t="s">
         <v>28</v>
       </c>
       <c r="C145">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D145">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="E145" t="s">
         <v>16</v>
       </c>
       <c r="F145" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="G145">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H145" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1.0000145E7</v>
+        <v>10000145</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
       </c>
       <c r="C146">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D146">
-        <v>1383.0</v>
+        <v>1383</v>
       </c>
       <c r="E146" t="s">
         <v>26</v>
@@ -4003,76 +4299,76 @@
         <v>345.75</v>
       </c>
       <c r="G146">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1.0000146E7</v>
+        <v>10000146</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D147">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="E147" t="s">
         <v>21</v>
       </c>
       <c r="F147" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="G147">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1.0000147E7</v>
+        <v>10000147</v>
       </c>
       <c r="B148" t="s">
         <v>35</v>
       </c>
       <c r="C148">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D148">
-        <v>636.0</v>
+        <v>636</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="G148">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H148" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1.0000148E7</v>
+        <v>10000148</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
       </c>
       <c r="C149">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D149">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="E149" t="s">
         <v>16</v>
@@ -4081,50 +4377,50 @@
         <v>77.75</v>
       </c>
       <c r="G149">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1.0000149E7</v>
+        <v>10000149</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="C150">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D150">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="G150">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H150" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1.000015E7</v>
+        <v>10000150</v>
       </c>
       <c r="B151" t="s">
         <v>33</v>
       </c>
       <c r="C151">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D151">
-        <v>1607.0</v>
+        <v>1607</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
@@ -4133,24 +4429,24 @@
         <v>401.75</v>
       </c>
       <c r="G151">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1.0000151E7</v>
+        <v>10000151</v>
       </c>
       <c r="B152" t="s">
         <v>18</v>
       </c>
       <c r="C152">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D152">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="E152" t="s">
         <v>34</v>
@@ -4159,24 +4455,24 @@
         <v>364.75</v>
       </c>
       <c r="G152">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1.0000152E7</v>
+        <v>10000152</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="C153">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D153">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="E153" t="s">
         <v>21</v>
@@ -4185,50 +4481,50 @@
         <v>185.75</v>
       </c>
       <c r="G153">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H153" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1.0000153E7</v>
+        <v>10000153</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
       </c>
       <c r="C154">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D154">
-        <v>1952.0</v>
+        <v>1952</v>
       </c>
       <c r="E154" t="s">
         <v>34</v>
       </c>
       <c r="F154" s="1">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="G154">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H154" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1.0000154E7</v>
+        <v>10000154</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
       </c>
       <c r="C155">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D155">
-        <v>1575.0</v>
+        <v>1575</v>
       </c>
       <c r="E155" t="s">
         <v>26</v>
@@ -4237,50 +4533,50 @@
         <v>393.75</v>
       </c>
       <c r="G155">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1.0000155E7</v>
+        <v>10000155</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
       <c r="C156">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D156">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="G156">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1.0000156E7</v>
+        <v>10000156</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D157">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E157" t="s">
         <v>16</v>
@@ -4289,24 +4585,24 @@
         <v>53.75</v>
       </c>
       <c r="G157">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H157" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1.0000157E7</v>
+        <v>10000157</v>
       </c>
       <c r="B158" t="s">
         <v>36</v>
       </c>
       <c r="C158">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D158">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -4315,50 +4611,50 @@
         <v>421.25</v>
       </c>
       <c r="G158">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1.0000158E7</v>
+        <v>10000158</v>
       </c>
       <c r="B159" t="s">
         <v>35</v>
       </c>
       <c r="C159">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D159">
-        <v>1904.0</v>
+        <v>1904</v>
       </c>
       <c r="E159" t="s">
         <v>16</v>
       </c>
       <c r="F159" s="1">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="G159">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1.0000159E7</v>
+        <v>10000159</v>
       </c>
       <c r="B160" t="s">
         <v>32</v>
       </c>
       <c r="C160">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D160">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="E160" t="s">
         <v>34</v>
@@ -4367,24 +4663,24 @@
         <v>243.5</v>
       </c>
       <c r="G160">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1.000016E7</v>
+        <v>10000160</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D161">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
         <v>26</v>
@@ -4393,24 +4689,24 @@
         <v>92.25</v>
       </c>
       <c r="G161">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H161" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1.0000161E7</v>
+        <v>10000161</v>
       </c>
       <c r="B162" t="s">
         <v>28</v>
       </c>
       <c r="C162">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D162">
-        <v>609.0</v>
+        <v>609</v>
       </c>
       <c r="E162" t="s">
         <v>22</v>
@@ -4419,24 +4715,24 @@
         <v>152.25</v>
       </c>
       <c r="G162">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H162" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1.0000162E7</v>
+        <v>10000162</v>
       </c>
       <c r="B163" t="s">
         <v>23</v>
       </c>
       <c r="C163">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D163">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -4445,24 +4741,24 @@
         <v>52.25</v>
       </c>
       <c r="G163">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H163" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1.0000163E7</v>
+        <v>10000163</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D164">
-        <v>1814.0</v>
+        <v>1814</v>
       </c>
       <c r="E164" t="s">
         <v>22</v>
@@ -4471,24 +4767,24 @@
         <v>453.5</v>
       </c>
       <c r="G164">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H164" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1.0000164E7</v>
+        <v>10000164</v>
       </c>
       <c r="B165" t="s">
         <v>24</v>
       </c>
       <c r="C165">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D165">
-        <v>1729.0</v>
+        <v>1729</v>
       </c>
       <c r="E165" t="s">
         <v>22</v>
@@ -4497,24 +4793,24 @@
         <v>432.25</v>
       </c>
       <c r="G165">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H165" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1.0000165E7</v>
+        <v>10000165</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
       </c>
       <c r="C166">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D166">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
@@ -4523,24 +4819,24 @@
         <v>87.25</v>
       </c>
       <c r="G166">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H166" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1.0000166E7</v>
+        <v>10000166</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
       </c>
       <c r="C167">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D167">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="E167" t="s">
         <v>21</v>
@@ -4549,24 +4845,24 @@
         <v>222.5</v>
       </c>
       <c r="G167">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H167" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1.0000167E7</v>
+        <v>10000167</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
       </c>
       <c r="C168">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D168">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -4575,24 +4871,24 @@
         <v>139.25</v>
       </c>
       <c r="G168">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H168" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1.0000168E7</v>
+        <v>10000168</v>
       </c>
       <c r="B169" t="s">
         <v>35</v>
       </c>
       <c r="C169">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D169">
-        <v>726.0</v>
+        <v>726</v>
       </c>
       <c r="E169" t="s">
         <v>21</v>
@@ -4601,24 +4897,24 @@
         <v>181.5</v>
       </c>
       <c r="G169">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H169" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1.0000169E7</v>
+        <v>10000169</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
       </c>
       <c r="C170">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D170">
-        <v>1545.0</v>
+        <v>1545</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -4627,76 +4923,76 @@
         <v>386.25</v>
       </c>
       <c r="G170">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H170" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1.000017E7</v>
+        <v>10000170</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
       </c>
       <c r="C171">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D171">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="G171">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1.0000171E7</v>
+        <v>10000171</v>
       </c>
       <c r="B172" t="s">
         <v>36</v>
       </c>
       <c r="C172">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D172">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="E172" t="s">
         <v>21</v>
       </c>
       <c r="F172" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="G172">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H172" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1.0000172E7</v>
+        <v>10000172</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
       </c>
       <c r="C173">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D173">
-        <v>1442.0</v>
+        <v>1442</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
@@ -4705,24 +5001,24 @@
         <v>360.5</v>
       </c>
       <c r="G173">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1.0000173E7</v>
+        <v>10000173</v>
       </c>
       <c r="B174" t="s">
         <v>28</v>
       </c>
       <c r="C174">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D174">
-        <v>1245.0</v>
+        <v>1245</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -4731,24 +5027,24 @@
         <v>311.25</v>
       </c>
       <c r="G174">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H174" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1.0000174E7</v>
+        <v>10000174</v>
       </c>
       <c r="B175" t="s">
         <v>23</v>
       </c>
       <c r="C175">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D175">
-        <v>1398.0</v>
+        <v>1398</v>
       </c>
       <c r="E175" t="s">
         <v>16</v>
@@ -4757,24 +5053,24 @@
         <v>349.5</v>
       </c>
       <c r="G175">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H175" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1.0000175E7</v>
+        <v>10000175</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
       </c>
       <c r="C176">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D176">
-        <v>1305.0</v>
+        <v>1305</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -4783,24 +5079,24 @@
         <v>326.25</v>
       </c>
       <c r="G176">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1.0000176E7</v>
+        <v>10000176</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
       </c>
       <c r="C177">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D177">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="E177" t="s">
         <v>26</v>
@@ -4809,24 +5105,24 @@
         <v>157.5</v>
       </c>
       <c r="G177">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H177" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1.0000177E7</v>
+        <v>10000177</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
       </c>
       <c r="C178">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D178">
-        <v>1047.0</v>
+        <v>1047</v>
       </c>
       <c r="E178" t="s">
         <v>21</v>
@@ -4835,24 +5131,24 @@
         <v>261.75</v>
       </c>
       <c r="G178">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H178" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1.0000178E7</v>
+        <v>10000178</v>
       </c>
       <c r="B179" t="s">
         <v>28</v>
       </c>
       <c r="C179">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D179">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="E179" t="s">
         <v>16</v>
@@ -4861,24 +5157,24 @@
         <v>308.75</v>
       </c>
       <c r="G179">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H179" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1.0000179E7</v>
+        <v>10000179</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
       </c>
       <c r="C180">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D180">
-        <v>1271.0</v>
+        <v>1271</v>
       </c>
       <c r="E180" t="s">
         <v>26</v>
@@ -4887,24 +5183,24 @@
         <v>317.75</v>
       </c>
       <c r="G180">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1.000018E7</v>
+        <v>10000180</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
       </c>
       <c r="C181">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D181">
-        <v>862.0</v>
+        <v>862</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -4913,24 +5209,24 @@
         <v>215.5</v>
       </c>
       <c r="G181">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H181" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1.0000181E7</v>
+        <v>10000181</v>
       </c>
       <c r="B182" t="s">
         <v>27</v>
       </c>
       <c r="C182">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D182">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -4939,76 +5235,76 @@
         <v>336.25</v>
       </c>
       <c r="G182">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1.0000182E7</v>
+        <v>10000182</v>
       </c>
       <c r="B183" t="s">
         <v>33</v>
       </c>
       <c r="C183">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D183">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="E183" t="s">
         <v>16</v>
       </c>
       <c r="F183" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="G183">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1.0000183E7</v>
+        <v>10000183</v>
       </c>
       <c r="B184" t="s">
         <v>29</v>
       </c>
       <c r="C184">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D184">
-        <v>1876.0</v>
+        <v>1876</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
       </c>
       <c r="F184" s="1">
-        <v>469.0</v>
+        <v>469</v>
       </c>
       <c r="G184">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H184" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1.0000184E7</v>
+        <v>10000184</v>
       </c>
       <c r="B185" t="s">
         <v>32</v>
       </c>
       <c r="C185">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D185">
-        <v>898.0</v>
+        <v>898</v>
       </c>
       <c r="E185" t="s">
         <v>22</v>
@@ -5017,24 +5313,24 @@
         <v>224.5</v>
       </c>
       <c r="G185">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H185" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1.0000185E7</v>
+        <v>10000185</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
       </c>
       <c r="C186">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D186">
-        <v>1398.0</v>
+        <v>1398</v>
       </c>
       <c r="E186" t="s">
         <v>12</v>
@@ -5043,24 +5339,24 @@
         <v>349.5</v>
       </c>
       <c r="G186">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1.0000186E7</v>
+        <v>10000186</v>
       </c>
       <c r="B187" t="s">
         <v>31</v>
       </c>
       <c r="C187">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D187">
-        <v>1719.0</v>
+        <v>1719</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -5069,24 +5365,24 @@
         <v>429.75</v>
       </c>
       <c r="G187">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1.0000187E7</v>
+        <v>10000187</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
       </c>
       <c r="C188">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D188">
-        <v>1847.0</v>
+        <v>1847</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -5095,24 +5391,24 @@
         <v>461.75</v>
       </c>
       <c r="G188">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1.0000188E7</v>
+        <v>10000188</v>
       </c>
       <c r="B189" t="s">
         <v>29</v>
       </c>
       <c r="C189">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D189">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -5121,24 +5417,24 @@
         <v>101.75</v>
       </c>
       <c r="G189">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H189" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1.0000189E7</v>
+        <v>10000189</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
       </c>
       <c r="C190">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D190">
-        <v>1699.0</v>
+        <v>1699</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
@@ -5147,24 +5443,24 @@
         <v>424.75</v>
       </c>
       <c r="G190">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1.000019E7</v>
+        <v>10000190</v>
       </c>
       <c r="B191" t="s">
         <v>28</v>
       </c>
       <c r="C191">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D191">
-        <v>1061.0</v>
+        <v>1061</v>
       </c>
       <c r="E191" t="s">
         <v>34</v>
@@ -5173,24 +5469,24 @@
         <v>265.25</v>
       </c>
       <c r="G191">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1.0000191E7</v>
+        <v>10000191</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
       </c>
       <c r="C192">
-        <v>76002.0</v>
+        <v>76002</v>
       </c>
       <c r="D192">
-        <v>1447.0</v>
+        <v>1447</v>
       </c>
       <c r="E192" t="s">
         <v>34</v>
@@ -5199,2463 +5495,2461 @@
         <v>361.75</v>
       </c>
       <c r="G192">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1.0000192E7</v>
+        <v>10000192</v>
       </c>
       <c r="B193" t="s">
         <v>33</v>
       </c>
       <c r="C193">
-        <v>76001.0</v>
+        <v>76001</v>
       </c>
       <c r="D193">
-        <v>496.0</v>
+        <v>496</v>
       </c>
       <c r="E193" t="s">
         <v>22</v>
       </c>
       <c r="F193" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="G193">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H193" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F343" s="1"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F348" s="1"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F377" s="1"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F410" s="1"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F454" s="1"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F455" s="1"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F456" s="1"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F457" s="1"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F458" s="1"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F459" s="1"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F460" s="1"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F461" s="1"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F462" s="1"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F463" s="1"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F464" s="1"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F465" s="1"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F466" s="1"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F467" s="1"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F468" s="1"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F469" s="1"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F470" s="1"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F471" s="1"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F472" s="1"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F473" s="1"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F474" s="1"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F475" s="1"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F476" s="1"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F477" s="1"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F478" s="1"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F479" s="1"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F480" s="1"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F481" s="1"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F482" s="1"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F483" s="1"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F484" s="1"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F485" s="1"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F486" s="1"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F487" s="1"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F488" s="1"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F489" s="1"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F490" s="1"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F491" s="1"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F492" s="1"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F493" s="1"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F494" s="1"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F495" s="1"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F496" s="1"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F497" s="1"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F498" s="1"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F499" s="1"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F500" s="1"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F501" s="1"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F502" s="1"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F503" s="1"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F504" s="1"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F505" s="1"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F506" s="1"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F507" s="1"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F508" s="1"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F509" s="1"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F510" s="1"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F511" s="1"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F512" s="1"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F513" s="1"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F514" s="1"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F515" s="1"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F516" s="1"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F517" s="1"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F518" s="1"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F519" s="1"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F520" s="1"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F521" s="1"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F522" s="1"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F523" s="1"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F524" s="1"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F525" s="1"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F526" s="1"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F527" s="1"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F528" s="1"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F529" s="1"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F530" s="1"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F531" s="1"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F532" s="1"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F533" s="1"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F534" s="1"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F535" s="1"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F536" s="1"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F537" s="1"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F538" s="1"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F539" s="1"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F540" s="1"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F541" s="1"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F542" s="1"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F543" s="1"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F544" s="1"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F545" s="1"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F546" s="1"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F547" s="1"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F548" s="1"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F549" s="1"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F550" s="1"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F551" s="1"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F552" s="1"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F553" s="1"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F554" s="1"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F555" s="1"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F556" s="1"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F557" s="1"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F558" s="1"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F559" s="1"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F560" s="1"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F561" s="1"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F562" s="1"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F563" s="1"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F564" s="1"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F565" s="1"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F566" s="1"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F567" s="1"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F568" s="1"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F569" s="1"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F570" s="1"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F571" s="1"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F572" s="1"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F573" s="1"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F574" s="1"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F575" s="1"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F576" s="1"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F577" s="1"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F578" s="1"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F579" s="1"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F580" s="1"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F581" s="1"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F582" s="1"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F583" s="1"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F584" s="1"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F585" s="1"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F586" s="1"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F587" s="1"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F588" s="1"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F589" s="1"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F590" s="1"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F591" s="1"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F592" s="1"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F593" s="1"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F594" s="1"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F595" s="1"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F596" s="1"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F597" s="1"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F598" s="1"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F599" s="1"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F600" s="1"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F601" s="1"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F602" s="1"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F603" s="1"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F604" s="1"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F605" s="1"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F606" s="1"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F607" s="1"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F608" s="1"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F609" s="1"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F610" s="1"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F611" s="1"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F612" s="1"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F613" s="1"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F614" s="1"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F615" s="1"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F616" s="1"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F617" s="1"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F618" s="1"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F619" s="1"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F620" s="1"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F621" s="1"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F622" s="1"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F623" s="1"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F624" s="1"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F625" s="1"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F626" s="1"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F627" s="1"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F628" s="1"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F629" s="1"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F630" s="1"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F631" s="1"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F632" s="1"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F633" s="1"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F634" s="1"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F635" s="1"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F636" s="1"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F637" s="1"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F638" s="1"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F639" s="1"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F640" s="1"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F641" s="1"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F642" s="1"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F643" s="1"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F644" s="1"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F645" s="1"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F646" s="1"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F647" s="1"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F648" s="1"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F649" s="1"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F650" s="1"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F651" s="1"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F652" s="1"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F653" s="1"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F654" s="1"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F655" s="1"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F656" s="1"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F657" s="1"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F658" s="1"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F659" s="1"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F660" s="1"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F661" s="1"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F662" s="1"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F663" s="1"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F664" s="1"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F665" s="1"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F666" s="1"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F667" s="1"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F668" s="1"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F669" s="1"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F670" s="1"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F671" s="1"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F672" s="1"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F673" s="1"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F674" s="1"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F675" s="1"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F676" s="1"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F677" s="1"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F678" s="1"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F679" s="1"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F680" s="1"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F681" s="1"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F682" s="1"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F683" s="1"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F684" s="1"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F685" s="1"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F686" s="1"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F687" s="1"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F688" s="1"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F689" s="1"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F690" s="1"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F691" s="1"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F692" s="1"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F693" s="1"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F694" s="1"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F695" s="1"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F696" s="1"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F697" s="1"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F698" s="1"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F699" s="1"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F700" s="1"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F701" s="1"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F702" s="1"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F703" s="1"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F704" s="1"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F705" s="1"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F706" s="1"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F707" s="1"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F708" s="1"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F709" s="1"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F710" s="1"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F711" s="1"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F712" s="1"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F713" s="1"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F714" s="1"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F715" s="1"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F716" s="1"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F717" s="1"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F718" s="1"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F719" s="1"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F720" s="1"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F721" s="1"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F722" s="1"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F723" s="1"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F724" s="1"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F725" s="1"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F726" s="1"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F727" s="1"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F728" s="1"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F729" s="1"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F730" s="1"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F731" s="1"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F732" s="1"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F733" s="1"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F734" s="1"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F735" s="1"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F736" s="1"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F737" s="1"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F738" s="1"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F739" s="1"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F740" s="1"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F741" s="1"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F742" s="1"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F743" s="1"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F744" s="1"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F745" s="1"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F746" s="1"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F747" s="1"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F748" s="1"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F749" s="1"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F750" s="1"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F751" s="1"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F752" s="1"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F753" s="1"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F754" s="1"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F755" s="1"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F756" s="1"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F757" s="1"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F758" s="1"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F759" s="1"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F760" s="1"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F761" s="1"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F762" s="1"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F763" s="1"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F764" s="1"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F765" s="1"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F766" s="1"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F767" s="1"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F768" s="1"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F769" s="1"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F770" s="1"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F771" s="1"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F772" s="1"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F773" s="1"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F774" s="1"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F775" s="1"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F776" s="1"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F777" s="1"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F778" s="1"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F779" s="1"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F780" s="1"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F781" s="1"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F782" s="1"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F783" s="1"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F784" s="1"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F785" s="1"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F786" s="1"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F787" s="1"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F788" s="1"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F789" s="1"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F790" s="1"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F791" s="1"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F792" s="1"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F793" s="1"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F794" s="1"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F795" s="1"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F796" s="1"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F797" s="1"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F798" s="1"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F799" s="1"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F800" s="1"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F801" s="1"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F802" s="1"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F803" s="1"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F804" s="1"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F805" s="1"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F806" s="1"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F807" s="1"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F808" s="1"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F809" s="1"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F810" s="1"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F811" s="1"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F812" s="1"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F813" s="1"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F814" s="1"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F815" s="1"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F816" s="1"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F817" s="1"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F818" s="1"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F819" s="1"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F820" s="1"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F821" s="1"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F822" s="1"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F823" s="1"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F824" s="1"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F825" s="1"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F826" s="1"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F827" s="1"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F828" s="1"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F829" s="1"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F830" s="1"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F831" s="1"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F832" s="1"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F833" s="1"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F834" s="1"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F835" s="1"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F836" s="1"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F837" s="1"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F838" s="1"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F839" s="1"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F840" s="1"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F841" s="1"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F842" s="1"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F843" s="1"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F844" s="1"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F845" s="1"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F846" s="1"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F847" s="1"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F848" s="1"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F849" s="1"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F850" s="1"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F851" s="1"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F852" s="1"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F853" s="1"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F854" s="1"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F855" s="1"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F856" s="1"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F857" s="1"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F858" s="1"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F859" s="1"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F860" s="1"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F861" s="1"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F862" s="1"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F863" s="1"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F864" s="1"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F865" s="1"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F866" s="1"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F867" s="1"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F868" s="1"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F869" s="1"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F870" s="1"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F871" s="1"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F872" s="1"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F873" s="1"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F874" s="1"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F875" s="1"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F876" s="1"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F877" s="1"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F878" s="1"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F879" s="1"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F880" s="1"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F881" s="1"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F882" s="1"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F883" s="1"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F884" s="1"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F885" s="1"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F886" s="1"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F887" s="1"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F888" s="1"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F889" s="1"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F890" s="1"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F891" s="1"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F892" s="1"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F893" s="1"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F894" s="1"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F895" s="1"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F896" s="1"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F897" s="1"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F898" s="1"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F899" s="1"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F900" s="1"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F901" s="1"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F902" s="1"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F903" s="1"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F904" s="1"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F905" s="1"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F906" s="1"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F907" s="1"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F908" s="1"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F909" s="1"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F910" s="1"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F911" s="1"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F912" s="1"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F913" s="1"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F914" s="1"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F915" s="1"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F916" s="1"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F917" s="1"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F918" s="1"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F919" s="1"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F920" s="1"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F921" s="1"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F922" s="1"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F923" s="1"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F924" s="1"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F925" s="1"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F926" s="1"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F927" s="1"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F928" s="1"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F929" s="1"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F930" s="1"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F931" s="1"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F932" s="1"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F933" s="1"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F934" s="1"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F935" s="1"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F936" s="1"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F937" s="1"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F938" s="1"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F939" s="1"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F940" s="1"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F941" s="1"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F942" s="1"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F943" s="1"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F944" s="1"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F945" s="1"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F946" s="1"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F947" s="1"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F948" s="1"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F949" s="1"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F950" s="1"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F951" s="1"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F952" s="1"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F953" s="1"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F954" s="1"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F955" s="1"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F956" s="1"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F957" s="1"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F958" s="1"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F959" s="1"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F960" s="1"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F961" s="1"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F962" s="1"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F963" s="1"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F964" s="1"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F965" s="1"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F966" s="1"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F967" s="1"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F968" s="1"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F969" s="1"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F970" s="1"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F971" s="1"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F972" s="1"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F973" s="1"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F974" s="1"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F975" s="1"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F976" s="1"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F977" s="1"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F978" s="1"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F979" s="1"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F980" s="1"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F981" s="1"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F982" s="1"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F983" s="1"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F984" s="1"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F985" s="1"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F986" s="1"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F987" s="1"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F988" s="1"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F989" s="1"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F990" s="1"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F991" s="1"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F992" s="1"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F993" s="1"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F994" s="1"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F995" s="1"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F996" s="1"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F997" s="1"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F998" s="1"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F999" s="1"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1000" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>